--- a/pre-waf/tests/test_data/test_dfs_zve.xlsx
+++ b/pre-waf/tests/test_data/test_dfs_zve.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>tu_id</t>
   </si>
@@ -99,6 +99,18 @@
   <si>
     <t>sonstigevors</t>
   </si>
+  <si>
+    <t>zve_nokfb_ind</t>
+  </si>
+  <si>
+    <t>d_zve</t>
+  </si>
+  <si>
+    <t>d_zu_kfb</t>
+  </si>
+  <si>
+    <t>zve_temp</t>
+  </si>
 </sst>
 </file>
 
@@ -127,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -135,14 +147,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AI30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH26" sqref="AH26:AJ27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +484,7 @@
     <col min="21" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -545,8 +569,20 @@
       <c r="AC1" t="s">
         <v>27</v>
       </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>B2</f>
         <v>1</v>
@@ -574,12 +610,15 @@
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L2">
@@ -598,6 +637,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="R2">
@@ -630,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <f t="shared" ref="AA2:AA7" si="1">(12*D2+(12*C2 - 1000)*(C2&gt;450))</f>
+        <f>(12*D2+(12*C2 - 1000)*(C2&gt;450))</f>
         <v>0</v>
       </c>
       <c r="AB2">
@@ -641,9 +681,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A13" si="2">B3</f>
+        <f t="shared" ref="A3:A13" si="1">B3</f>
         <v>2</v>
       </c>
       <c r="B3">
@@ -669,12 +709,15 @@
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J3" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K3" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L3">
@@ -697,6 +740,7 @@
         <v>9</v>
       </c>
       <c r="Q3" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="R3">
@@ -709,11 +753,11 @@
         <v>2018</v>
       </c>
       <c r="U3" s="2">
-        <f t="shared" ref="U3:U12" si="3">MAX(AA3-Z3-36,0)</f>
+        <f>MAX(AA3-Z3-36,0)</f>
         <v>4842</v>
       </c>
       <c r="V3" s="2">
-        <f t="shared" ref="V3:V25" si="4">U3-AB3</f>
+        <f>U3-AB3</f>
         <v>4842</v>
       </c>
       <c r="W3" s="1">
@@ -725,24 +769,24 @@
         <v>5241</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z25" si="5">INT(((0.6+(0.02*(T3-2005)))*(2*12*M3))-(12*M3))+AC3</f>
+        <f>INT(((0.6+(0.02*(T3-2005)))*(2*12*M3))-(12*M3))+AC3</f>
         <v>1322</v>
       </c>
       <c r="AA3">
+        <f>(12*D3+(12*C3 - 1000)*(C3&gt;450))</f>
+        <v>6200</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f>INT(MAX(12 *(0.96*O3+P3), MIN(12 *(0.96*O3+P3+N3),  1900)  ))</f>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4">
         <f t="shared" si="1"/>
-        <v>6200</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC25" si="6">INT(MAX(12 *(0.96*O3+P3), MIN(12 *(0.96*O3+P3+N3),  1900)  ))</f>
-        <v>804</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B4">
@@ -768,19 +812,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J4" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K4" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M13" si="7">0.1*C4</f>
+        <f t="shared" ref="M4:M13" si="2">0.1*C4</f>
         <v>90</v>
       </c>
       <c r="N4">
@@ -796,6 +843,7 @@
         <v>13.5</v>
       </c>
       <c r="Q4" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="R4">
@@ -812,7 +860,7 @@
         <v>7780</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" si="4"/>
+        <f>U4-AB4</f>
         <v>7780</v>
       </c>
       <c r="W4" s="1">
@@ -820,28 +868,28 @@
         <v>8179</v>
       </c>
       <c r="X4" s="1">
-        <f t="shared" ref="X4:X25" si="8">MAX(W4-AB4,0)</f>
+        <f>MAX(W4-AB4,0)</f>
         <v>8179</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T4-2005)))*(2*12*M4))-(12*M4))+AC4</f>
         <v>1984</v>
       </c>
       <c r="AA4">
+        <f>(12*D4+(12*C4 - 1000)*(C4&gt;450))</f>
+        <v>9800</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f>INT(MAX(12 *(0.96*O4+P4), MIN(12 *(0.96*O4+P4+N4),  1900)  ))</f>
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5">
         <f t="shared" si="1"/>
-        <v>9800</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="6"/>
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B5">
@@ -867,19 +915,22 @@
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J5" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K5" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="N5">
@@ -895,6 +946,7 @@
         <v>18</v>
       </c>
       <c r="Q5" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="R5">
@@ -907,11 +959,11 @@
         <v>2018</v>
       </c>
       <c r="U5" s="2">
-        <f t="shared" si="3"/>
+        <f>MAX(AA5-Z5-36,0)</f>
         <v>10719</v>
       </c>
       <c r="V5" s="2">
-        <f t="shared" si="4"/>
+        <f>U5-AB5</f>
         <v>10719</v>
       </c>
       <c r="W5" s="1">
@@ -919,28 +971,28 @@
         <v>11118</v>
       </c>
       <c r="X5" s="1">
-        <f t="shared" si="8"/>
+        <f>MAX(W5-AB5,0)</f>
         <v>11118</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T5-2005)))*(2*12*M5))-(12*M5))+AC5</f>
         <v>2645</v>
       </c>
       <c r="AA5">
+        <f>(12*D5+(12*C5 - 1000)*(C5&gt;450))</f>
+        <v>13400</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f>INT(MAX(12 *(0.96*O5+P5), MIN(12 *(0.96*O5+P5+N5),  1900)  ))</f>
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6">
         <f t="shared" si="1"/>
-        <v>13400</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="6"/>
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B6">
@@ -966,19 +1018,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J6" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K6" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="N6">
@@ -994,6 +1049,7 @@
         <v>22.5</v>
       </c>
       <c r="Q6" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="R6">
@@ -1006,11 +1062,11 @@
         <v>2018</v>
       </c>
       <c r="U6" s="2">
-        <f t="shared" si="3"/>
+        <f>MAX(AA6-Z6-36,0)</f>
         <v>13768</v>
       </c>
       <c r="V6" s="2">
-        <f t="shared" si="4"/>
+        <f>U6-AB6</f>
         <v>13768</v>
       </c>
       <c r="W6" s="1">
@@ -1018,28 +1074,28 @@
         <v>14167</v>
       </c>
       <c r="X6" s="1">
-        <f t="shared" si="8"/>
+        <f>MAX(W6-AB6,0)</f>
         <v>14167</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T6-2005)))*(2*12*M6))-(12*M6))+AC6</f>
         <v>3196</v>
       </c>
       <c r="AA6">
+        <f>(12*D6+(12*C6 - 1000)*(C6&gt;450))</f>
+        <v>17000</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f>INT(MAX(12 *(0.96*O6+P6), MIN(12 *(0.96*O6+P6+N6),  1900)  ))</f>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7">
         <f t="shared" si="1"/>
-        <v>17000</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="6"/>
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B7">
@@ -1065,19 +1121,22 @@
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J7" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K7" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="N7">
@@ -1093,6 +1152,7 @@
         <v>75</v>
       </c>
       <c r="Q7" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="R7">
@@ -1105,11 +1165,11 @@
         <v>2018</v>
       </c>
       <c r="U7" s="2">
-        <f t="shared" si="3"/>
+        <f>MAX(AA7-Z7-36,0)</f>
         <v>49136</v>
       </c>
       <c r="V7" s="2">
-        <f t="shared" si="4"/>
+        <f>U7-AB7</f>
         <v>49136</v>
       </c>
       <c r="W7" s="1">
@@ -1117,28 +1177,28 @@
         <v>49535</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" si="8"/>
+        <f>MAX(W7-AB7,0)</f>
         <v>49535</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T7-2005)))*(2*12*M7))-(12*M7))+AC7</f>
         <v>9828</v>
       </c>
       <c r="AA7">
+        <f>(12*D7+(12*C7 - 1000)*(C7&gt;450))</f>
+        <v>59000</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f>INT(MAX(12 *(0.96*O7+P7), MIN(12 *(0.96*O7+P7+N7),  1900)  ))</f>
+        <v>5508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8">
         <f t="shared" si="1"/>
-        <v>59000</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="6"/>
-        <v>5508</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B8">
@@ -1164,12 +1224,15 @@
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J8" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K8" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L8">
@@ -1188,6 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="R8">
@@ -1200,11 +1264,11 @@
         <v>2010</v>
       </c>
       <c r="U8" s="2">
-        <f t="shared" si="3"/>
+        <f>MAX(AA8-Z8-36,0)</f>
         <v>0</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="4"/>
+        <f>U8-AB8</f>
         <v>0</v>
       </c>
       <c r="W8" s="1">
@@ -1212,28 +1276,28 @@
         <v>363</v>
       </c>
       <c r="X8" s="1">
-        <f t="shared" si="8"/>
+        <f>MAX(W8-AB8,0)</f>
         <v>363</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T8-2005)))*(2*12*M8))-(12*M8))+AC8</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f t="shared" ref="AA8:AA13" si="9">(12*D8+(12*C8 - 920)*(C8&gt;450))</f>
+        <f>(12*D8+(12*C8 - 920)*(C8&gt;450))</f>
         <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="6"/>
+        <f>INT(MAX(12 *(0.96*O8+P8), MIN(12 *(0.96*O8+P8+N8),  1900)  ))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9">
@@ -1259,19 +1323,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J9" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K9" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="N9">
@@ -1287,6 +1354,7 @@
         <v>9</v>
       </c>
       <c r="Q9" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="R9">
@@ -1299,40 +1367,40 @@
         <v>2010</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="3"/>
+        <f>MAX(AA9-Z9-36,0)</f>
         <v>5152</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="4"/>
+        <f>U9-AB9</f>
         <v>5152</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" ref="W9:W17" si="10">U9+MAX(E9*12-801,0)</f>
+        <f t="shared" ref="W9:W17" si="3">U9+MAX(E9*12-801,0)</f>
         <v>5551</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" si="8"/>
+        <f>MAX(W9-AB9,0)</f>
         <v>5551</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T9-2005)))*(2*12*M9))-(12*M9))+AC9</f>
         <v>1092</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="9"/>
+        <f>(12*D9+(12*C9 - 920)*(C9&gt;450))</f>
         <v>6280</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="6"/>
+        <f>INT(MAX(12 *(0.96*O9+P9), MIN(12 *(0.96*O9+P9+N9),  1900)  ))</f>
         <v>804</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10">
@@ -1358,19 +1426,22 @@
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J10" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K10" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="N10">
@@ -1386,6 +1457,7 @@
         <v>13.5</v>
       </c>
       <c r="Q10" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="R10">
@@ -1398,40 +1470,40 @@
         <v>2010</v>
       </c>
       <c r="U10" s="2">
+        <f>MAX(AA10-Z10-36,0)</f>
+        <v>8205</v>
+      </c>
+      <c r="V10" s="2">
+        <f>U10-AB10</f>
+        <v>8205</v>
+      </c>
+      <c r="W10" s="1">
         <f t="shared" si="3"/>
-        <v>8205</v>
-      </c>
-      <c r="V10" s="2">
-        <f t="shared" si="4"/>
-        <v>8205</v>
-      </c>
-      <c r="W10" s="1">
-        <f t="shared" si="10"/>
         <v>8604</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="8"/>
+        <f>MAX(W10-AB10,0)</f>
         <v>8604</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T10-2005)))*(2*12*M10))-(12*M10))+AC10</f>
         <v>1639</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="9"/>
+        <f>(12*D10+(12*C10 - 920)*(C10&gt;450))</f>
         <v>9880</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="6"/>
+        <f>INT(MAX(12 *(0.96*O10+P10), MIN(12 *(0.96*O10+P10+N10),  1900)  ))</f>
         <v>1207</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11">
@@ -1457,19 +1529,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J11" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K11" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="N11">
@@ -1485,6 +1560,7 @@
         <v>18</v>
       </c>
       <c r="Q11" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="R11">
@@ -1497,40 +1573,40 @@
         <v>2010</v>
       </c>
       <c r="U11" s="2">
+        <f>MAX(AA11-Z11-36,0)</f>
+        <v>11259</v>
+      </c>
+      <c r="V11" s="2">
+        <f>U11-AB11</f>
+        <v>11259</v>
+      </c>
+      <c r="W11" s="1">
         <f t="shared" si="3"/>
-        <v>11259</v>
-      </c>
-      <c r="V11" s="2">
-        <f t="shared" si="4"/>
-        <v>11259</v>
-      </c>
-      <c r="W11" s="1">
-        <f t="shared" si="10"/>
         <v>11658</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="8"/>
+        <f>MAX(W11-AB11,0)</f>
         <v>11658</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T11-2005)))*(2*12*M11))-(12*M11))+AC11</f>
         <v>2185</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="9"/>
+        <f>(12*D11+(12*C11 - 920)*(C11&gt;450))</f>
         <v>13480</v>
       </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="6"/>
+        <f>INT(MAX(12 *(0.96*O11+P11), MIN(12 *(0.96*O11+P11+N11),  1900)  ))</f>
         <v>1609</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12">
@@ -1556,19 +1632,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J12" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K12" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="N12">
@@ -1584,6 +1663,7 @@
         <v>22.5</v>
       </c>
       <c r="Q12" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="R12">
@@ -1596,40 +1676,40 @@
         <v>2010</v>
       </c>
       <c r="U12" s="2">
+        <f>MAX(AA12-Z12-36,0)</f>
+        <v>14424</v>
+      </c>
+      <c r="V12" s="2">
+        <f>U12-AB12</f>
+        <v>14424</v>
+      </c>
+      <c r="W12" s="1">
         <f t="shared" si="3"/>
-        <v>14424</v>
-      </c>
-      <c r="V12" s="2">
-        <f t="shared" si="4"/>
-        <v>14424</v>
-      </c>
-      <c r="W12" s="1">
-        <f t="shared" si="10"/>
         <v>14823</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" si="8"/>
+        <f>MAX(W12-AB12,0)</f>
         <v>14823</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T12-2005)))*(2*12*M12))-(12*M12))+AC12</f>
         <v>2620</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="9"/>
+        <f>(12*D12+(12*C12 - 920)*(C12&gt;450))</f>
         <v>17080</v>
       </c>
       <c r="AB12">
         <v>0</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="6"/>
+        <f>INT(MAX(12 *(0.96*O12+P12), MIN(12 *(0.96*O12+P12+N12),  1900)  ))</f>
         <v>1900</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13">
@@ -1655,19 +1735,22 @@
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J13" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K13" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="N13">
@@ -1683,6 +1766,7 @@
         <v>120</v>
       </c>
       <c r="Q13" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="R13">
@@ -1699,15 +1783,15 @@
         <v>83606</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="4"/>
+        <f>U13-AB13</f>
         <v>83606</v>
       </c>
       <c r="W13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>84005</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" si="8"/>
+        <f>MAX(W13-AB13,0)</f>
         <v>84005</v>
       </c>
       <c r="Z13">
@@ -1715,18 +1799,18 @@
         <v>11438</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="9"/>
+        <f>(12*D13+(12*C13 - 920)*(C13&gt;450))</f>
         <v>95080</v>
       </c>
       <c r="AB13">
         <v>0</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="6"/>
+        <f>INT(MAX(12 *(0.96*O13+P13), MIN(12 *(0.96*O13+P13+N13),  1900)  ))</f>
         <v>8812</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
@@ -1753,12 +1837,15 @@
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J14" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K14" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L14">
@@ -1769,18 +1856,19 @@
         <v>200</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="N14:N19" si="11">0.02*C14</f>
+        <f t="shared" ref="N14:N19" si="4">0.02*C14</f>
         <v>40</v>
       </c>
       <c r="O14">
-        <f t="shared" ref="O14:O19" si="12">0.08*C14</f>
+        <f t="shared" ref="O14:O19" si="5">0.08*C14</f>
         <v>160</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P14:P19" si="13">0.015*C14</f>
+        <f t="shared" ref="P14:P19" si="6">0.015*C14</f>
         <v>30</v>
       </c>
       <c r="Q14" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="R14">
@@ -1797,19 +1885,19 @@
         <v>18301</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="4"/>
+        <f>U14-AB14</f>
         <v>14797</v>
       </c>
       <c r="W14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>18700</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" si="8"/>
+        <f>MAX(W14-AB14,0)</f>
         <v>15196</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T14-2005)))*(2*12*M14))-(12*M14))+AC14</f>
         <v>3355</v>
       </c>
       <c r="AA14">
@@ -1821,11 +1909,11 @@
         <v>3504</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="6"/>
+        <f>INT(MAX(12 *(0.96*O14+P14), MIN(12 *(0.96*O14+P14+N14),  1900)  ))</f>
         <v>2203</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21</v>
       </c>
@@ -1852,12 +1940,15 @@
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J15" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K15" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="L15">
@@ -1868,18 +1959,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q15" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="R15">
@@ -1891,24 +1983,12 @@
       <c r="T15">
         <v>2012</v>
       </c>
-      <c r="U15" s="2">
-        <f t="shared" ref="U15:U17" si="14">MAX(AA15-Z15-36,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
       <c r="Z15">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T15-2005)))*(2*12*M15))-(12*M15))+AC15</f>
         <v>0</v>
       </c>
       <c r="AA15">
@@ -1919,11 +1999,11 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="6"/>
+        <f>INT(MAX(12 *(0.96*O15+P15), MIN(12 *(0.96*O15+P15+N15),  1900)  ))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>22</v>
       </c>
@@ -1950,34 +2030,38 @@
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J16" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K16" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16:M19" si="15">0.1*C16</f>
+        <f t="shared" ref="M16:M19" si="7">0.1*C16</f>
         <v>300</v>
       </c>
       <c r="N16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="O16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="P16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="Q16" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="R16">
@@ -1994,7 +2078,7 @@
         <v>29136</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="4"/>
+        <f>U16-AB16</f>
         <v>26124</v>
       </c>
       <c r="W16" s="1">
@@ -2002,11 +2086,11 @@
         <v>29535</v>
       </c>
       <c r="X16" s="1">
-        <f t="shared" si="8"/>
+        <f>MAX(W16-AB16,0)</f>
         <v>26523</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T16-2005)))*(2*12*M16))-(12*M16))+AC16</f>
         <v>4600</v>
       </c>
       <c r="AA16">
@@ -2018,11 +2102,11 @@
         <v>3012</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="6"/>
+        <f>INT(MAX(12 *(0.96*O16+P16), MIN(12 *(0.96*O16+P16+N16),  1900)  ))</f>
         <v>3304</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>22</v>
       </c>
@@ -2049,34 +2133,38 @@
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J17" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K17" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q17" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="R17">
@@ -2088,24 +2176,12 @@
       <c r="T17">
         <v>2009</v>
       </c>
-      <c r="U17" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
       <c r="Z17">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T17-2005)))*(2*12*M17))-(12*M17))+AC17</f>
         <v>0</v>
       </c>
       <c r="AA17">
@@ -2116,11 +2192,11 @@
         <v>0</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="6"/>
+        <f>INT(MAX(12 *(0.96*O17+P17), MIN(12 *(0.96*O17+P17+N17),  1900)  ))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>23</v>
       </c>
@@ -2147,34 +2223,38 @@
         <v>0</v>
       </c>
       <c r="I18" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J18" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K18" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="N18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="O18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="P18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="Q18" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="R18">
@@ -2191,7 +2271,7 @@
         <v>29632</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="4"/>
+        <f>U18-AB18</f>
         <v>26728</v>
       </c>
       <c r="W18" s="1">
@@ -2199,11 +2279,11 @@
         <v>40211</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" si="8"/>
+        <f>MAX(W18-AB18,0)</f>
         <v>37307</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T18-2005)))*(2*12*M18))-(12*M18))+AC18</f>
         <v>2683</v>
       </c>
       <c r="AA18">
@@ -2215,11 +2295,11 @@
         <v>2904</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="6"/>
+        <f>INT(MAX(12 *(0.96*O18+P18), MIN(12 *(0.96*O18+P18+N18),  1900)  ))</f>
         <v>2203</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>23</v>
       </c>
@@ -2246,34 +2326,38 @@
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J19" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K19" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q19" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="R19">
@@ -2285,38 +2369,27 @@
       <c r="T19">
         <v>2005</v>
       </c>
-      <c r="U19" s="2">
-        <f>MAX(AA19-Z19-36,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="1">
-        <v>0</v>
-      </c>
-      <c r="X19" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
       <c r="Z19">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T19-2005)))*(2*12*M19))-(12*M19))+AC19</f>
         <v>0</v>
       </c>
       <c r="AA19">
-        <f t="shared" ref="AA19:AA25" si="16">(12*D19+(12*C19 - 1000)*(C19&gt;450))</f>
+        <f>(12*D19+(12*C19 - 1000)*(C19&gt;450))</f>
         <v>0</v>
       </c>
       <c r="AB19">
         <v>0</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="6"/>
+        <f>INT(MAX(12 *(0.96*O19+P19), MIN(12 *(0.96*O19+P19+N19),  1900)  ))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>31</v>
       </c>
@@ -2343,12 +2416,15 @@
         <v>0</v>
       </c>
       <c r="I20" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J20" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K20" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L20">
@@ -2371,6 +2447,7 @@
         <v>30</v>
       </c>
       <c r="Q20" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="R20">
@@ -2383,11 +2460,11 @@
         <v>2018</v>
       </c>
       <c r="U20" s="2">
-        <f t="shared" ref="U20:U21" si="17">MAX(AA20-Z20-36,0)</f>
+        <f>MAX(AA20-Z20-36,0)</f>
         <v>19033</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="4"/>
+        <f>U20-AB20</f>
         <v>19033</v>
       </c>
       <c r="W20" s="1">
@@ -2395,26 +2472,26 @@
         <v>19033</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="8"/>
+        <f>MAX(W20-AB20,0)</f>
         <v>19033</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T20-2005)))*(2*12*M20))-(12*M20))+AC20</f>
         <v>3931</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="16"/>
+        <f>(12*D20+(12*C20 - 1000)*(C20&gt;450))</f>
         <v>23000</v>
       </c>
       <c r="AB20">
         <v>0</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="6"/>
+        <f>INT(MAX(12 *(0.96*O20+P20), MIN(12 *(0.96*O20+P20+N20),  1900)  ))</f>
         <v>2203</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31</v>
       </c>
@@ -2434,41 +2511,45 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:G25" si="18">T21+(65-R21)</f>
+        <f t="shared" ref="G21:G27" si="8">T21+(65-R21)</f>
         <v>2053</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J21" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K21" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <f t="shared" ref="M21:M25" si="19">0.1*$C21</f>
+        <f t="shared" ref="M21:M30" si="9">0.1*$C21</f>
         <v>100</v>
       </c>
       <c r="N21">
-        <f t="shared" ref="N21:N25" si="20">0.02*C21</f>
+        <f t="shared" ref="N21:N25" si="10">0.02*C21</f>
         <v>20</v>
       </c>
       <c r="O21">
-        <f t="shared" ref="O21:O25" si="21">0.08*C21</f>
+        <f t="shared" ref="O21:O25" si="11">0.08*C21</f>
         <v>80</v>
       </c>
       <c r="P21">
-        <f t="shared" ref="P21:P25" si="22">0.015*C21</f>
+        <f t="shared" ref="P21:P25" si="12">0.015*C21</f>
         <v>15</v>
       </c>
       <c r="Q21" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="R21">
@@ -2481,11 +2562,11 @@
         <v>2018</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="17"/>
+        <f>MAX(AA21-Z21-36,0)</f>
         <v>8759</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="4"/>
+        <f>U21-AB21</f>
         <v>8759</v>
       </c>
       <c r="W21" s="1">
@@ -2493,26 +2574,26 @@
         <v>8759</v>
       </c>
       <c r="X21" s="1">
-        <f t="shared" si="8"/>
+        <f>MAX(W21-AB21,0)</f>
         <v>8759</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T21-2005)))*(2*12*M21))-(12*M21))+AC21</f>
         <v>2205</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="16"/>
+        <f>(12*D21+(12*C21 - 1000)*(C21&gt;450))</f>
         <v>11000</v>
       </c>
       <c r="AB21">
         <v>0</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="6"/>
+        <f>INT(MAX(12 *(0.96*O21+P21), MIN(12 *(0.96*O21+P21+N21),  1900)  ))</f>
         <v>1341</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>32</v>
       </c>
@@ -2532,41 +2613,45 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>2053</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J22" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="K22" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="N22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="O22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>240</v>
       </c>
       <c r="P22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="Q22" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="R22">
@@ -2583,7 +2668,7 @@
         <v>24050.5</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="4"/>
+        <f>U22-AB22</f>
         <v>16622.5</v>
       </c>
       <c r="W22" s="1">
@@ -2591,15 +2676,15 @@
         <v>24449.5</v>
       </c>
       <c r="X22" s="1">
-        <f t="shared" si="8"/>
+        <f>MAX(W22-AB22,0)</f>
         <v>17021.5</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T22-2005)))*(2*12*M22))-(12*M22))+AC22</f>
         <v>5896</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="16"/>
+        <f>(12*D22+(12*C22 - 1000)*(C22&gt;450))</f>
         <v>35000</v>
       </c>
       <c r="AB22">
@@ -2607,11 +2692,11 @@
         <v>7428</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="6"/>
+        <f>INT(MAX(12 *(0.96*O22+P22), MIN(12 *(0.96*O22+P22+N22),  1900)  ))</f>
         <v>3304</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32</v>
       </c>
@@ -2631,41 +2716,45 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>2053</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J23" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="K23" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="N23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="O23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>160</v>
       </c>
       <c r="P23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="Q23" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="R23">
@@ -2682,7 +2771,7 @@
         <v>24050.5</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" si="4"/>
+        <f>U23-AB23</f>
         <v>16622.5</v>
       </c>
       <c r="W23" s="1">
@@ -2690,15 +2779,15 @@
         <v>24449.5</v>
       </c>
       <c r="X23" s="1">
-        <f t="shared" si="8"/>
+        <f>MAX(W23-AB23,0)</f>
         <v>17021.5</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T23-2005)))*(2*12*M23))-(12*M23))+AC23</f>
         <v>3931</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="16"/>
+        <f>(12*D23+(12*C23 - 1000)*(C23&gt;450))</f>
         <v>23000</v>
       </c>
       <c r="AB23">
@@ -2706,11 +2795,11 @@
         <v>7428</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="6"/>
+        <f>INT(MAX(12 *(0.96*O23+P23), MIN(12 *(0.96*O23+P23+N23),  1900)  ))</f>
         <v>2203</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32</v>
       </c>
@@ -2730,41 +2819,45 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>2075</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J24" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K24" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q24" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="R24">
@@ -2776,38 +2869,27 @@
       <c r="T24">
         <v>2018</v>
       </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="1">
-        <f t="shared" ref="W24:W25" si="23">U24+MAX(E24*12-801,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
       <c r="Z24">
-        <f t="shared" si="5"/>
+        <f>INT(((0.6+(0.02*(T24-2005)))*(2*12*M24))-(12*M24))+AC24</f>
         <v>0</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="16"/>
+        <f>(12*D24+(12*C24 - 1000)*(C24&gt;450))</f>
         <v>0</v>
       </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="6"/>
+        <f>INT(MAX(12 *(0.96*O24+P24), MIN(12 *(0.96*O24+P24+N24),  1900)  ))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>32</v>
       </c>
@@ -2827,41 +2909,45 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>2080</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J25" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K25" t="b">
+        <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q25" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="R25">
@@ -2873,34 +2959,533 @@
       <c r="T25">
         <v>2018</v>
       </c>
-      <c r="U25" s="2">
-        <v>0</v>
-      </c>
-      <c r="V25" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="1">
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Z25">
+        <f>INT(((0.6+(0.02*(T25-2005)))*(2*12*M25))-(12*M25))+AC25</f>
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <f>(12*D25+(12*C25 - 1000)*(C25&gt;450))</f>
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <f>INT(MAX(12 *(0.96*O25+P25), MIN(12 *(0.96*O25+P25+N25),  1900)  ))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>33</v>
+      </c>
+      <c r="B26" s="3">
+        <v>33</v>
+      </c>
+      <c r="C26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>250</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA25">
+        <v>2043</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="J26" s="3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>50</v>
+      </c>
+      <c r="M26" s="3">
+        <f>0.093*5800</f>
+        <v>539.4</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" ref="N26:N30" si="13">0.02*C26</f>
+        <v>140</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" ref="O26:O30" si="14">0.08*C26</f>
+        <v>560</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" ref="P26:P30" si="15">0.015*C26</f>
+        <v>105</v>
+      </c>
+      <c r="Q26" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>40</v>
+      </c>
+      <c r="S26" s="3">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3">
+        <v>2018</v>
+      </c>
+      <c r="U26" s="4">
+        <f>(AD26+AD27)/2</f>
+        <v>38436</v>
+      </c>
+      <c r="V26" s="4">
+        <f>($AG$26+$AG$27)/2</f>
+        <v>27294</v>
+      </c>
+      <c r="W26" s="5">
+        <f>U26+MAX(E26*12-2*801,0)</f>
+        <v>39834</v>
+      </c>
+      <c r="X26" s="4">
+        <f>V26+MAX(E26*12-2*801,0)</f>
+        <v>28692</v>
+      </c>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3">
+        <f>INT(((0.6+(0.02*(T26-2005)))*(2*12*M26))-(12*M26))+AC26</f>
+        <v>12371</v>
+      </c>
+      <c r="AA26" s="3">
+        <f>(12*D26+(12*C26 - 1000)*(C26&gt;450))</f>
+        <v>83000</v>
+      </c>
+      <c r="AB26">
+        <f>7428/2*3</f>
+        <v>11142</v>
+      </c>
+      <c r="AC26" s="3">
+        <f>INT(MAX(12 *(0.96*O26+P26), MIN(12 *(0.96*O26+P26+N26),  1900)  ))</f>
+        <v>7711</v>
+      </c>
+      <c r="AD26">
+        <f>AA26-Z26-36-570</f>
+        <v>70023</v>
+      </c>
+      <c r="AE26">
+        <f>AD26-AD27</f>
+        <v>63174</v>
+      </c>
+      <c r="AG26">
+        <f>AD26-(AB26-AF27)</f>
+        <v>54588</v>
+      </c>
+      <c r="AI26" s="3"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>800</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>250</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="8"/>
+        <v>2043</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f>0.093*$C27</f>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="14"/>
+        <v>64</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="Q27" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>40</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>2018</v>
+      </c>
+      <c r="U27" s="4">
+        <f>(AD27+AD26)/2</f>
+        <v>38436</v>
+      </c>
+      <c r="V27" s="4">
+        <f>($AG$26+$AG$27)/2</f>
+        <v>27294</v>
+      </c>
+      <c r="W27" s="1">
+        <f>U27+MAX(E27*12-2*801,0)</f>
+        <v>39834</v>
+      </c>
+      <c r="X27" s="4">
+        <f>V27+MAX(E26*12-2*801,0)</f>
+        <v>28692</v>
+      </c>
+      <c r="Z27">
+        <f>INT(((0.6+(0.02*(T27-2005)))*(2*12*M27))-(12*M27))+AC27</f>
+        <v>1715</v>
+      </c>
+      <c r="AA27">
+        <f>(12*D27+(12*C27 - 1000)*(C27&gt;450))</f>
+        <v>8600</v>
+      </c>
+      <c r="AB27">
+        <f>7428/2*3</f>
+        <v>11142</v>
+      </c>
+      <c r="AC27">
+        <f>INT(MAX(12 *(0.96*O27+P27), MIN(12 *(0.96*O27+P27+N27),  1900)  ))</f>
+        <v>1073</v>
+      </c>
+      <c r="AD27">
+        <f>AA27-Z27-36</f>
+        <v>6849</v>
+      </c>
+      <c r="AF27">
+        <f>AD27-AB27</f>
+        <v>-4293</v>
+      </c>
+      <c r="AG27">
+        <f>AD27-(AB27+AF27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>250</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:G30" si="16">T28+(65-R28)</f>
+        <v>2068</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>15</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <v>2018</v>
+      </c>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28">
+        <f t="shared" ref="Z28:Z30" si="17">(12*C28+(12*B28 - 1000)*(B28&gt;450))</f>
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f>(12*D28+(12*C28 - 1000)*(C28&gt;450))</f>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" ref="AC28:AC30" si="18">INT(MAX(12 *(0.96*O28+P28), MIN(12 *(0.96*O28+P28+N28),  1900)  ))</f>
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>250</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="6"/>
+        <v>2073</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>10</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
+      <c r="T29">
+        <v>2018</v>
+      </c>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <f>(12*D29+(12*C29 - 1000)*(C29&gt;450))</f>
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="16"/>
+        <v>2075</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>8</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+      <c r="T30">
+        <v>2018</v>
+      </c>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <f>(12*D30+(12*C30 - 1000)*(C30&gt;450))</f>
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD30">
         <v>0</v>
       </c>
     </row>
